--- a/sd-add-new-version-annuaire/ig/StructureDefinition-ror-task.xlsx
+++ b/sd-add-new-version-annuaire/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T08:24:05+00:00</t>
+    <t>2024-04-10T09:05:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-version-annuaire/ig/StructureDefinition-ror-task.xlsx
+++ b/sd-add-new-version-annuaire/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T09:05:12+00:00</t>
+    <t>2024-04-12T12:13:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-version-annuaire/ig/StructureDefinition-ror-task.xlsx
+++ b/sd-add-new-version-annuaire/ig/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T12:13:15+00:00</t>
+    <t>2024-04-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -591,7 +591,7 @@
     <t>Task.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Task|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-task)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-task)
 </t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
     <t>Task.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner)
 </t>
   </si>
   <si>
@@ -1072,7 +1072,7 @@
 Executer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner)
 </t>
   </si>
   <si>
@@ -1097,7 +1097,7 @@
     <t>Task.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location)
 </t>
   </si>
   <si>
